--- a/DATOS VIVIAN FOODS S.A.xlsx
+++ b/DATOS VIVIAN FOODS S.A.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VIVIAN FOODS S.AC\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109AAE44-A274-4203-A904-A20D659F2F41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LISTA PRECIO " sheetId="1" r:id="rId1"/>
@@ -21,7 +15,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'LISTA PRECIO '!$A$1:$H$100</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'LISTA PRECIO '!$1:$26</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="119">
   <si>
     <t>CHORIZO OXFORD 400GRS</t>
   </si>
@@ -672,11 +666,17 @@
   <si>
     <t>TORTILLA DE PAPA CON CHISTORRA</t>
   </si>
+  <si>
+    <t>bleusiger</t>
+  </si>
+  <si>
+    <t>PUREADYS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="_ &quot;S/.&quot;\ * #,##0.00_ ;_ &quot;S/.&quot;\ * \-#,##0.00_ ;_ &quot;S/.&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
@@ -684,7 +684,7 @@
     <numFmt numFmtId="167" formatCode="_ * #,##0.00000_ ;_ * \-#,##0.00000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="168" formatCode="_-&quot;S/&quot;\ * #,##0.0000_-;\-&quot;S/&quot;\ * #,##0.0000_-;_-&quot;S/&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -976,7 +976,7 @@
   <cellStyles count="5">
     <cellStyle name="Millares" xfId="4" builtinId="3"/>
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
-    <cellStyle name="Moneda 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Moneda 2" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
   </cellStyles>
@@ -1013,7 +1013,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE2D99BE-6E8C-47FE-A2F7-5E1E06D654A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BE2D99BE-6E8C-47FE-A2F7-5E1E06D654A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1056,7 +1056,7 @@
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F55D8D7-2CC6-45B2-AF75-5B44BC2E322A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F55D8D7-2CC6-45B2-AF75-5B44BC2E322A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1344,24 +1344,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:T103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H97" sqref="H97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19" style="3" customWidth="1"/>
     <col min="2" max="2" width="31.5703125" style="14" bestFit="1" customWidth="1"/>
@@ -1381,7 +1381,7 @@
     <col min="18" max="19" width="12.28515625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" s="2" customFormat="1" ht="21">
       <c r="A2" s="47" t="s">
         <v>85</v>
       </c>
@@ -1399,7 +1399,7 @@
       <c r="O2" s="36"/>
       <c r="Q2" s="37"/>
     </row>
-    <row r="3" spans="1:17" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" s="2" customFormat="1" ht="21">
       <c r="A3" s="35"/>
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
@@ -1415,7 +1415,7 @@
       <c r="O3" s="36"/>
       <c r="Q3" s="37"/>
     </row>
-    <row r="4" spans="1:17" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" s="2" customFormat="1" ht="21">
       <c r="A4" s="35"/>
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
@@ -1431,7 +1431,7 @@
       <c r="O4" s="36"/>
       <c r="Q4" s="37"/>
     </row>
-    <row r="5" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" s="2" customFormat="1" ht="16.5">
       <c r="A5" s="3"/>
       <c r="B5" s="14"/>
       <c r="C5" s="9"/>
@@ -1439,7 +1439,7 @@
       <c r="O5" s="36"/>
       <c r="Q5" s="37"/>
     </row>
-    <row r="6" spans="1:17" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" s="2" customFormat="1" ht="16.5" hidden="1">
       <c r="A6" s="26" t="s">
         <v>65</v>
       </c>
@@ -1449,7 +1449,7 @@
       <c r="O6" s="36"/>
       <c r="Q6" s="37"/>
     </row>
-    <row r="7" spans="1:17" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" s="2" customFormat="1" ht="16.5" hidden="1">
       <c r="A7" s="26" t="s">
         <v>66</v>
       </c>
@@ -1459,7 +1459,7 @@
       <c r="O7" s="36"/>
       <c r="Q7" s="37"/>
     </row>
-    <row r="8" spans="1:17" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" s="2" customFormat="1" ht="16.5" hidden="1">
       <c r="A8" s="26" t="s">
         <v>67</v>
       </c>
@@ -1469,7 +1469,7 @@
       <c r="O8" s="36"/>
       <c r="Q8" s="37"/>
     </row>
-    <row r="9" spans="1:17" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" s="2" customFormat="1" ht="16.5" hidden="1">
       <c r="A9" s="26" t="s">
         <v>68</v>
       </c>
@@ -1479,7 +1479,7 @@
       <c r="O9" s="36"/>
       <c r="Q9" s="37"/>
     </row>
-    <row r="10" spans="1:17" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" s="2" customFormat="1" ht="16.5" hidden="1">
       <c r="A10" s="26" t="s">
         <v>69</v>
       </c>
@@ -1489,7 +1489,7 @@
       <c r="O10" s="36"/>
       <c r="Q10" s="37"/>
     </row>
-    <row r="11" spans="1:17" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" s="2" customFormat="1" ht="16.5" hidden="1">
       <c r="A11" s="26" t="s">
         <v>70</v>
       </c>
@@ -1499,7 +1499,7 @@
       <c r="O11" s="36"/>
       <c r="Q11" s="37"/>
     </row>
-    <row r="12" spans="1:17" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" s="2" customFormat="1" ht="16.5" hidden="1">
       <c r="A12" s="26" t="s">
         <v>71</v>
       </c>
@@ -1509,7 +1509,7 @@
       <c r="O12" s="36"/>
       <c r="Q12" s="37"/>
     </row>
-    <row r="13" spans="1:17" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" s="2" customFormat="1" ht="16.5" hidden="1">
       <c r="A13" s="26" t="s">
         <v>72</v>
       </c>
@@ -1519,7 +1519,7 @@
       <c r="O13" s="36"/>
       <c r="Q13" s="37"/>
     </row>
-    <row r="14" spans="1:17" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" s="2" customFormat="1" ht="16.5" hidden="1">
       <c r="A14" s="26" t="s">
         <v>73</v>
       </c>
@@ -1529,7 +1529,7 @@
       <c r="O14" s="36"/>
       <c r="Q14" s="37"/>
     </row>
-    <row r="15" spans="1:17" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" s="2" customFormat="1" ht="16.5" hidden="1">
       <c r="A15" s="26" t="s">
         <v>74</v>
       </c>
@@ -1539,7 +1539,7 @@
       <c r="O15" s="36"/>
       <c r="Q15" s="37"/>
     </row>
-    <row r="16" spans="1:17" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" s="2" customFormat="1" ht="16.5" hidden="1">
       <c r="A16" s="16" t="s">
         <v>48</v>
       </c>
@@ -1549,7 +1549,7 @@
       <c r="O16" s="36"/>
       <c r="Q16" s="37"/>
     </row>
-    <row r="17" spans="1:19" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" s="2" customFormat="1" ht="16.5" hidden="1">
       <c r="A17" s="22" t="s">
         <v>61</v>
       </c>
@@ -1559,7 +1559,7 @@
       <c r="O17" s="36"/>
       <c r="Q17" s="37"/>
     </row>
-    <row r="18" spans="1:19" s="2" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" s="2" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A18" s="22" t="s">
         <v>62</v>
       </c>
@@ -1569,7 +1569,7 @@
       <c r="O18" s="36"/>
       <c r="Q18" s="37"/>
     </row>
-    <row r="19" spans="1:19" s="2" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" s="2" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A19" s="22" t="s">
         <v>63</v>
       </c>
@@ -1579,7 +1579,7 @@
       <c r="O19" s="36"/>
       <c r="Q19" s="37"/>
     </row>
-    <row r="20" spans="1:19" s="2" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" s="2" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A20" s="22" t="s">
         <v>64</v>
       </c>
@@ -1589,7 +1589,7 @@
       <c r="O20" s="36"/>
       <c r="Q20" s="37"/>
     </row>
-    <row r="21" spans="1:19" s="2" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" s="2" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A21" s="22"/>
       <c r="B21" s="15"/>
       <c r="C21" s="9"/>
@@ -1597,7 +1597,7 @@
       <c r="O21" s="36"/>
       <c r="Q21" s="37"/>
     </row>
-    <row r="22" spans="1:19" s="2" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" s="2" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A22" s="23" t="s">
         <v>75</v>
       </c>
@@ -1607,14 +1607,14 @@
       <c r="O22" s="36"/>
       <c r="Q22" s="37"/>
     </row>
-    <row r="23" spans="1:19" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" s="2" customFormat="1">
       <c r="B23" s="15"/>
       <c r="C23" s="9"/>
       <c r="D23" s="30"/>
       <c r="O23" s="36"/>
       <c r="Q23" s="37"/>
     </row>
-    <row r="24" spans="1:19" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" s="2" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="9"/>
@@ -1622,7 +1622,7 @@
       <c r="O24" s="36"/>
       <c r="Q24" s="37"/>
     </row>
-    <row r="25" spans="1:19" s="31" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" s="31" customFormat="1" ht="18.75" customHeight="1">
       <c r="A25" s="48" t="s">
         <v>50</v>
       </c>
@@ -1659,7 +1659,7 @@
       <c r="O25" s="40"/>
       <c r="Q25" s="38"/>
     </row>
-    <row r="26" spans="1:19" s="31" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" s="31" customFormat="1" ht="27.75" customHeight="1">
       <c r="A26" s="48"/>
       <c r="B26" s="49"/>
       <c r="C26" s="49"/>
@@ -1682,7 +1682,7 @@
       <c r="O26" s="40"/>
       <c r="Q26" s="38"/>
     </row>
-    <row r="27" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="30">
       <c r="A27" s="4">
         <v>55000000001</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>0.42857142857142866</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="30">
       <c r="A28" s="4">
         <v>55500000002</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>0.42857142857142871</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="30">
       <c r="A29" s="5">
         <v>97506200400</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>0.4285714285714286</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="30">
       <c r="A30" s="5">
         <v>97506200600</v>
       </c>
@@ -1923,7 +1923,7 @@
         <v>0.42857142857142877</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="30">
       <c r="A31" s="4">
         <v>55500000001</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>0.42857142857142866</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" ht="33.75" customHeight="1">
       <c r="A32" s="5">
         <v>97506200250</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>0.42857142857142866</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="33.75" customHeight="1">
       <c r="A33" s="5">
         <v>82030201000</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>0.42857142857142855</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" ht="33.75" customHeight="1">
       <c r="A34" s="5">
         <v>97505200250</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>0.4285714285714286</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" ht="33.75" customHeight="1">
       <c r="A35" s="5">
         <v>97505200400</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>0.42857142857142855</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="33.75" customHeight="1">
       <c r="A36" s="5">
         <v>97505200600</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>0.42857142857142855</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="33.75" customHeight="1">
       <c r="A37" s="5">
         <v>97519200400</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>0.4285714285714286</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" ht="33.75" customHeight="1">
       <c r="A38" s="5">
         <v>97519200600</v>
       </c>
@@ -2403,7 +2403,7 @@
         <v>0.4285714285714286</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" ht="33.75" customHeight="1">
       <c r="A39" s="5">
         <v>88006200240</v>
       </c>
@@ -2463,7 +2463,7 @@
         <v>0.42857142857142866</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" ht="33.75" customHeight="1">
       <c r="A40" s="5">
         <v>88006200250</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>0.42857142857142877</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" ht="33.75" customHeight="1">
       <c r="A41" s="5">
         <v>88006200450</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>0.42857142857142877</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" ht="33.75" customHeight="1">
       <c r="A42" s="5">
         <v>88006201000</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>0.42857142857142855</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" ht="33.75" customHeight="1">
       <c r="A43" s="5">
         <v>88006201001</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>0.4285714285714286</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" ht="33.75" customHeight="1">
       <c r="A44" s="5">
         <v>88006202000</v>
       </c>
@@ -2763,7 +2763,7 @@
         <v>0.42857142857142866</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" ht="33.75" customHeight="1">
       <c r="A45" s="5">
         <v>88007200250</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>0.4285714285714286</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" ht="33.75" customHeight="1">
       <c r="A46" s="5">
         <v>88007201000</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>0.42857142857142871</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" ht="33.75" customHeight="1">
       <c r="A47" s="5">
         <v>88007201001</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>0.42857142857142871</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" ht="33.75" customHeight="1">
       <c r="A48" s="5">
         <v>88007202000</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>0.42857142857142877</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" ht="33.75" customHeight="1">
       <c r="A49" s="5">
         <v>86005200320</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>0.42857142857142871</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" ht="33.75" customHeight="1">
       <c r="A50" s="5">
         <v>95011200240</v>
       </c>
@@ -3123,7 +3123,7 @@
         <v>0.4285714285714286</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" ht="33.75" customHeight="1">
       <c r="A51" s="5">
         <v>95011200250</v>
       </c>
@@ -3183,7 +3183,7 @@
         <v>0.42857142857142855</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" ht="33.75" customHeight="1">
       <c r="A52" s="4">
         <v>66660000001</v>
       </c>
@@ -3243,7 +3243,7 @@
         <v>0.42857142857142871</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" ht="33.75" customHeight="1">
       <c r="A53" s="4">
         <v>66660000200</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>0.42857142857142855</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" ht="33.75" customHeight="1">
       <c r="A54" s="4">
         <v>66660000500</v>
       </c>
@@ -3363,7 +3363,7 @@
         <v>0.42857142857142871</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" ht="33.75" customHeight="1">
       <c r="A55" s="4">
         <v>77700000001</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v>0.42857142857142871</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" ht="33.75" customHeight="1">
       <c r="A56" s="4">
         <v>77700000200</v>
       </c>
@@ -3483,7 +3483,7 @@
         <v>0.42857142857142866</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" ht="33.75" customHeight="1">
       <c r="A57" s="4">
         <v>77700000500</v>
       </c>
@@ -3543,7 +3543,7 @@
         <v>0.4285714285714286</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" ht="33.75" customHeight="1">
       <c r="A58" s="5">
         <v>97510200250</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>0.4285714285714286</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" ht="33.75" customHeight="1">
       <c r="A59" s="5">
         <v>97510200350</v>
       </c>
@@ -3663,7 +3663,7 @@
         <v>0.4285714285714286</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" ht="33.75" customHeight="1">
       <c r="A60" s="5">
         <v>64015203000</v>
       </c>
@@ -3723,7 +3723,7 @@
         <v>0.4285714285714286</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" ht="33.75" customHeight="1">
       <c r="A61" s="5">
         <v>64015200250</v>
       </c>
@@ -3783,7 +3783,7 @@
         <v>0.42857142857142855</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" ht="33.75" customHeight="1">
       <c r="A62" s="5">
         <v>64015200500</v>
       </c>
@@ -3843,7 +3843,7 @@
         <v>0.4285714285714286</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" ht="33.75" customHeight="1">
       <c r="A63" s="5">
         <v>64016205000</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>0.42857142857142866</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" ht="33.75" customHeight="1">
       <c r="A64" s="5">
         <v>64016200250</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>0.4285714285714286</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" ht="33.75" customHeight="1">
       <c r="A65" s="5">
         <v>64016200500</v>
       </c>
@@ -4023,7 +4023,7 @@
         <v>0.4285714285714286</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" ht="33.75" customHeight="1">
       <c r="A66" s="5">
         <v>64021203000</v>
       </c>
@@ -4083,7 +4083,7 @@
         <v>0.4285714285714286</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" ht="33.75" customHeight="1">
       <c r="A67" s="5">
         <v>64021200250</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>0.4285714285714286</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" ht="33.75" customHeight="1">
       <c r="A68" s="5">
         <v>64021200500</v>
       </c>
@@ -4203,7 +4203,7 @@
         <v>0.4285714285714286</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" ht="33.75" customHeight="1">
       <c r="A69" s="4">
         <v>88800000002</v>
       </c>
@@ -4263,7 +4263,7 @@
         <v>0.42857142857142866</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" ht="33.75" customHeight="1">
       <c r="A70" s="4">
         <v>88800000250</v>
       </c>
@@ -4323,7 +4323,7 @@
         <v>0.4285714285714286</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" ht="33.75" customHeight="1">
       <c r="A71" s="4">
         <v>99900000001</v>
       </c>
@@ -4383,7 +4383,7 @@
         <v>0.42857142857142855</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" ht="33.75" customHeight="1">
       <c r="A72" s="4">
         <v>99900000250</v>
       </c>
@@ -4443,7 +4443,7 @@
         <v>0.4285714285714286</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" ht="33.75" customHeight="1">
       <c r="A73" s="4">
         <v>99900000500</v>
       </c>
@@ -4503,7 +4503,7 @@
         <v>0.4285714285714286</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" ht="33.75" customHeight="1">
       <c r="A74" s="4">
         <v>10100000001</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>0.4285714285714286</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" ht="33.75" customHeight="1">
       <c r="A75" s="4">
         <v>11110000001</v>
       </c>
@@ -4620,7 +4620,7 @@
         <v>0.42857142857142871</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" ht="33.75" customHeight="1">
       <c r="A76" s="4">
         <v>11110000250</v>
       </c>
@@ -4680,7 +4680,7 @@
         <v>0.42857142857142855</v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" ht="33.75" customHeight="1">
       <c r="A77" s="4">
         <v>11110000500</v>
       </c>
@@ -4740,7 +4740,7 @@
         <v>0.42857142857142855</v>
       </c>
     </row>
-    <row r="78" spans="1:19" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" s="2" customFormat="1" ht="33.75" customHeight="1">
       <c r="A78" s="4">
         <v>11120000001</v>
       </c>
@@ -4792,7 +4792,7 @@
         <v>0.4285714285714286</v>
       </c>
     </row>
-    <row r="79" spans="1:19" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" s="2" customFormat="1" ht="33.75" customHeight="1">
       <c r="A79" s="4">
         <v>11120000250</v>
       </c>
@@ -4844,7 +4844,7 @@
         <v>0.42857142857142866</v>
       </c>
     </row>
-    <row r="80" spans="1:19" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" s="2" customFormat="1" ht="33.75" customHeight="1">
       <c r="A80" s="4">
         <v>11120000500</v>
       </c>
@@ -4896,7 +4896,7 @@
         <v>0.42857142857142871</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" ht="33.75" customHeight="1">
       <c r="A81" s="4">
         <v>12120001000</v>
       </c>
@@ -4956,7 +4956,7 @@
         <v>0.42857142857142871</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" ht="33.75" customHeight="1">
       <c r="A82" s="4">
         <v>12120000300</v>
       </c>
@@ -5017,7 +5017,7 @@
         <v>0.42857142857142866</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" ht="33.75" customHeight="1">
       <c r="A83" s="4">
         <v>12130001000</v>
       </c>
@@ -5078,7 +5078,7 @@
         <v>0.42857142857142871</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" ht="33.75" customHeight="1">
       <c r="A84" s="4">
         <v>12130000300</v>
       </c>
@@ -5140,7 +5140,7 @@
         <v>0.42857142857142871</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" ht="33.75" customHeight="1">
       <c r="A85" s="4">
         <v>14140001000</v>
       </c>
@@ -5206,7 +5206,7 @@
         <v>0.4285714285714286</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" ht="33.75" customHeight="1">
       <c r="A86" s="4">
         <v>14140000500</v>
       </c>
@@ -5273,7 +5273,7 @@
         <v>0.42857142857142871</v>
       </c>
     </row>
-    <row r="87" spans="1:20" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" s="2" customFormat="1" ht="33.75" customHeight="1">
       <c r="A87" s="4">
         <v>19190001620</v>
       </c>
@@ -5338,7 +5338,7 @@
         <v>0.42857142857142871</v>
       </c>
     </row>
-    <row r="88" spans="1:20" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" s="2" customFormat="1" ht="33.75" customHeight="1">
       <c r="A88" s="4">
         <v>19190001630</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>0.42857142857142855</v>
       </c>
     </row>
-    <row r="89" spans="1:20" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" s="2" customFormat="1" ht="33.75" customHeight="1">
       <c r="A89" s="5">
         <v>19190001640</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>0.4286000000000002</v>
       </c>
     </row>
-    <row r="90" spans="1:20" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" s="2" customFormat="1" ht="33.75" customHeight="1">
       <c r="A90" s="5">
         <v>19190001660</v>
       </c>
@@ -5523,7 +5523,7 @@
         <v>0.4286000000000002</v>
       </c>
     </row>
-    <row r="91" spans="1:20" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" s="2" customFormat="1" ht="33.75" customHeight="1">
       <c r="A91" s="5">
         <v>19190001680</v>
       </c>
@@ -5562,7 +5562,7 @@
       <c r="R91" s="36"/>
       <c r="S91" s="43"/>
     </row>
-    <row r="92" spans="1:20" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" s="2" customFormat="1" ht="33.75" customHeight="1">
       <c r="A92" s="5">
         <v>18180001615</v>
       </c>
@@ -5623,7 +5623,7 @@
       </c>
       <c r="T92" s="11"/>
     </row>
-    <row r="93" spans="1:20" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" s="2" customFormat="1" ht="33.75" customHeight="1">
       <c r="A93" s="5">
         <v>18180001610</v>
       </c>
@@ -5683,7 +5683,7 @@
         <v>0.42860000000000004</v>
       </c>
     </row>
-    <row r="94" spans="1:20" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" s="2" customFormat="1" ht="33.75" customHeight="1">
       <c r="A94" s="5">
         <v>18180001515</v>
       </c>
@@ -5743,7 +5743,7 @@
         <v>0.42860000000000009</v>
       </c>
     </row>
-    <row r="95" spans="1:20" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" s="2" customFormat="1" ht="33.75" customHeight="1">
       <c r="A95" s="5">
         <v>18180001414</v>
       </c>
@@ -5803,7 +5803,7 @@
         <v>0.42860000000000015</v>
       </c>
     </row>
-    <row r="96" spans="1:20" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" s="2" customFormat="1" ht="33.75" customHeight="1">
       <c r="A96" s="5">
         <v>18180001516</v>
       </c>
@@ -5863,7 +5863,7 @@
         <v>0.42860000000000004</v>
       </c>
     </row>
-    <row r="97" spans="1:19" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" s="2" customFormat="1" ht="33.75" customHeight="1">
       <c r="A97" s="5">
         <v>18180001001</v>
       </c>
@@ -5923,7 +5923,7 @@
         <v>0.42860000000000015</v>
       </c>
     </row>
-    <row r="98" spans="1:19" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" s="2" customFormat="1" ht="33.75" customHeight="1">
       <c r="A98" s="5">
         <v>17170001111</v>
       </c>
@@ -5983,7 +5983,7 @@
         <v>0.42860000000000015</v>
       </c>
     </row>
-    <row r="99" spans="1:19" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" s="2" customFormat="1" ht="33.75" customHeight="1">
       <c r="A99" s="5">
         <v>13130000678</v>
       </c>
@@ -6043,7 +6043,7 @@
         <v>0.4286000000000002</v>
       </c>
     </row>
-    <row r="100" spans="1:19" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" s="2" customFormat="1" ht="33.75" customHeight="1">
       <c r="A100" s="5">
         <v>13130000688</v>
       </c>
@@ -6103,7 +6103,7 @@
         <v>0.4286000000000002</v>
       </c>
     </row>
-    <row r="101" spans="1:19" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" s="2" customFormat="1" ht="33.75" customHeight="1">
       <c r="A101" s="5">
         <v>19150000478</v>
       </c>
@@ -6165,7 +6165,7 @@
         <v>0.4286000000000002</v>
       </c>
     </row>
-    <row r="102" spans="1:19" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" s="2" customFormat="1" ht="33.75" customHeight="1">
       <c r="A102" s="5">
         <v>19160000137</v>
       </c>
@@ -6225,7 +6225,7 @@
         <v>0.42860000000000009</v>
       </c>
     </row>
-    <row r="103" spans="1:19" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" s="2" customFormat="1" ht="33.75" customHeight="1">
       <c r="A103" s="5">
         <v>19170000546</v>
       </c>
@@ -6306,20 +6306,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{651A2400-F1E0-410F-B30E-46A2A0CA000B}">
-  <dimension ref="D5:J23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D5:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="50.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:10" ht="18.75">
       <c r="D5" s="53"/>
       <c r="E5" s="54" t="s">
         <v>47</v>
@@ -6330,7 +6330,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="4:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:10" ht="18.75">
       <c r="D6" s="53"/>
       <c r="E6" s="54"/>
       <c r="F6" s="54"/>
@@ -6339,7 +6339,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="4:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:10" ht="18.75">
       <c r="D7" s="53"/>
       <c r="E7" s="54"/>
       <c r="F7" s="54"/>
@@ -6348,7 +6348,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="4:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:10" ht="18.75">
       <c r="D8" s="53"/>
       <c r="E8" s="54"/>
       <c r="F8" s="54"/>
@@ -6357,7 +6357,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="4:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:10" ht="18.75">
       <c r="D9" s="19" t="s">
         <v>51</v>
       </c>
@@ -6368,7 +6368,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="4:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:10" ht="18.75">
       <c r="D10" s="19" t="s">
         <v>52</v>
       </c>
@@ -6379,7 +6379,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="4:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="4:10" ht="18.75">
       <c r="D11" s="19" t="s">
         <v>53</v>
       </c>
@@ -6390,7 +6390,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="4:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:10" ht="18.75">
       <c r="D12" s="19" t="s">
         <v>54</v>
       </c>
@@ -6401,7 +6401,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:10">
       <c r="D13" s="19" t="s">
         <v>55</v>
       </c>
@@ -6410,7 +6410,7 @@
       <c r="G13" s="19"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:10">
       <c r="D14" s="19" t="s">
         <v>56</v>
       </c>
@@ -6421,7 +6421,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:10">
       <c r="D15" s="19" t="s">
         <v>57</v>
       </c>
@@ -6432,7 +6432,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:10">
       <c r="D16" s="19" t="s">
         <v>58</v>
       </c>
@@ -6443,7 +6443,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:10">
       <c r="D17" s="19" t="s">
         <v>59</v>
       </c>
@@ -6454,7 +6454,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:10">
       <c r="D18" s="19" t="s">
         <v>60</v>
       </c>
@@ -6465,7 +6465,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:10">
       <c r="D19" s="19" t="s">
         <v>48</v>
       </c>
@@ -6476,7 +6476,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:10">
       <c r="D20" s="22" t="s">
         <v>61</v>
       </c>
@@ -6487,7 +6487,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:10">
       <c r="D21" s="22" t="s">
         <v>62</v>
       </c>
@@ -6498,7 +6498,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:10">
       <c r="D22" s="22" t="s">
         <v>63</v>
       </c>
@@ -6509,7 +6509,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:10">
       <c r="D23" s="22" t="s">
         <v>64</v>
       </c>
@@ -6519,6 +6519,16 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
+    </row>
+    <row r="25" spans="4:10">
+      <c r="D25" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="4:10">
+      <c r="D26" s="2" t="s">
+        <v>117</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/DATOS VIVIAN FOODS S.A.xlsx
+++ b/DATOS VIVIAN FOODS S.A.xlsx
@@ -1013,7 +1013,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BE2D99BE-6E8C-47FE-A2F7-5E1E06D654A7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE2D99BE-6E8C-47FE-A2F7-5E1E06D654A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1056,7 +1056,7 @@
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F55D8D7-2CC6-45B2-AF75-5B44BC2E322A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F55D8D7-2CC6-45B2-AF75-5B44BC2E322A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1344,7 +1344,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1431,7 +1431,7 @@
       <c r="O4" s="36"/>
       <c r="Q4" s="37"/>
     </row>
-    <row r="5" spans="1:17" s="2" customFormat="1" ht="16.5">
+    <row r="5" spans="1:17" s="2" customFormat="1">
       <c r="A5" s="3"/>
       <c r="B5" s="14"/>
       <c r="C5" s="9"/>
@@ -1439,7 +1439,7 @@
       <c r="O5" s="36"/>
       <c r="Q5" s="37"/>
     </row>
-    <row r="6" spans="1:17" s="2" customFormat="1" ht="16.5" hidden="1">
+    <row r="6" spans="1:17" s="2" customFormat="1" hidden="1">
       <c r="A6" s="26" t="s">
         <v>65</v>
       </c>
@@ -1449,7 +1449,7 @@
       <c r="O6" s="36"/>
       <c r="Q6" s="37"/>
     </row>
-    <row r="7" spans="1:17" s="2" customFormat="1" ht="16.5" hidden="1">
+    <row r="7" spans="1:17" s="2" customFormat="1" hidden="1">
       <c r="A7" s="26" t="s">
         <v>66</v>
       </c>
@@ -1459,7 +1459,7 @@
       <c r="O7" s="36"/>
       <c r="Q7" s="37"/>
     </row>
-    <row r="8" spans="1:17" s="2" customFormat="1" ht="16.5" hidden="1">
+    <row r="8" spans="1:17" s="2" customFormat="1" hidden="1">
       <c r="A8" s="26" t="s">
         <v>67</v>
       </c>
@@ -1469,7 +1469,7 @@
       <c r="O8" s="36"/>
       <c r="Q8" s="37"/>
     </row>
-    <row r="9" spans="1:17" s="2" customFormat="1" ht="16.5" hidden="1">
+    <row r="9" spans="1:17" s="2" customFormat="1" hidden="1">
       <c r="A9" s="26" t="s">
         <v>68</v>
       </c>
@@ -1479,7 +1479,7 @@
       <c r="O9" s="36"/>
       <c r="Q9" s="37"/>
     </row>
-    <row r="10" spans="1:17" s="2" customFormat="1" ht="16.5" hidden="1">
+    <row r="10" spans="1:17" s="2" customFormat="1" hidden="1">
       <c r="A10" s="26" t="s">
         <v>69</v>
       </c>
@@ -1489,7 +1489,7 @@
       <c r="O10" s="36"/>
       <c r="Q10" s="37"/>
     </row>
-    <row r="11" spans="1:17" s="2" customFormat="1" ht="16.5" hidden="1">
+    <row r="11" spans="1:17" s="2" customFormat="1" hidden="1">
       <c r="A11" s="26" t="s">
         <v>70</v>
       </c>
@@ -1499,7 +1499,7 @@
       <c r="O11" s="36"/>
       <c r="Q11" s="37"/>
     </row>
-    <row r="12" spans="1:17" s="2" customFormat="1" ht="16.5" hidden="1">
+    <row r="12" spans="1:17" s="2" customFormat="1" hidden="1">
       <c r="A12" s="26" t="s">
         <v>71</v>
       </c>
@@ -1509,7 +1509,7 @@
       <c r="O12" s="36"/>
       <c r="Q12" s="37"/>
     </row>
-    <row r="13" spans="1:17" s="2" customFormat="1" ht="16.5" hidden="1">
+    <row r="13" spans="1:17" s="2" customFormat="1" hidden="1">
       <c r="A13" s="26" t="s">
         <v>72</v>
       </c>
@@ -1519,7 +1519,7 @@
       <c r="O13" s="36"/>
       <c r="Q13" s="37"/>
     </row>
-    <row r="14" spans="1:17" s="2" customFormat="1" ht="16.5" hidden="1">
+    <row r="14" spans="1:17" s="2" customFormat="1" hidden="1">
       <c r="A14" s="26" t="s">
         <v>73</v>
       </c>
@@ -1529,7 +1529,7 @@
       <c r="O14" s="36"/>
       <c r="Q14" s="37"/>
     </row>
-    <row r="15" spans="1:17" s="2" customFormat="1" ht="16.5" hidden="1">
+    <row r="15" spans="1:17" s="2" customFormat="1" hidden="1">
       <c r="A15" s="26" t="s">
         <v>74</v>
       </c>
@@ -1539,7 +1539,7 @@
       <c r="O15" s="36"/>
       <c r="Q15" s="37"/>
     </row>
-    <row r="16" spans="1:17" s="2" customFormat="1" ht="16.5" hidden="1">
+    <row r="16" spans="1:17" s="2" customFormat="1" hidden="1">
       <c r="A16" s="16" t="s">
         <v>48</v>
       </c>
@@ -1549,7 +1549,7 @@
       <c r="O16" s="36"/>
       <c r="Q16" s="37"/>
     </row>
-    <row r="17" spans="1:19" s="2" customFormat="1" ht="16.5" hidden="1">
+    <row r="17" spans="1:19" s="2" customFormat="1" hidden="1">
       <c r="A17" s="22" t="s">
         <v>61</v>
       </c>
@@ -1682,7 +1682,7 @@
       <c r="O26" s="40"/>
       <c r="Q26" s="38"/>
     </row>
-    <row r="27" spans="1:19" ht="30">
+    <row r="27" spans="1:19" ht="33">
       <c r="A27" s="4">
         <v>55000000001</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>0.42857142857142866</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="30">
+    <row r="28" spans="1:19" ht="33">
       <c r="A28" s="4">
         <v>55500000002</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>0.42857142857142871</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="30">
+    <row r="29" spans="1:19" ht="33">
       <c r="A29" s="5">
         <v>97506200400</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>0.4285714285714286</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="30">
+    <row r="30" spans="1:19" ht="33">
       <c r="A30" s="5">
         <v>97506200600</v>
       </c>
@@ -1923,7 +1923,7 @@
         <v>0.42857142857142877</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="30">
+    <row r="31" spans="1:19" ht="33">
       <c r="A31" s="4">
         <v>55500000001</v>
       </c>
@@ -6310,7 +6310,7 @@
   <dimension ref="D5:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
